--- a/Testing_Data/PressureSensorCalibration.xlsx
+++ b/Testing_Data/PressureSensorCalibration.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Bipedal_Robot\Testing_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD4B7B26-6B19-4298-A52F-46DAAE727923}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9F9DEA9-AC91-4E5B-B6C9-1278FD81A53C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27285" yWindow="1080" windowWidth="21600" windowHeight="11385" xr2:uid="{ED23B71C-6DC7-4F03-A302-FE33CB0246DD}"/>
+    <workbookView xWindow="-21750" yWindow="4125" windowWidth="21600" windowHeight="11385" xr2:uid="{ED23B71C-6DC7-4F03-A302-FE33CB0246DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -239,7 +239,7 @@
                   <c:v>4.08</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.8899999999999997</c:v>
+                  <c:v>4.82</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1359,7 +1359,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1410,7 +1410,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>4.8899999999999997</v>
+        <v>4.82</v>
       </c>
       <c r="B6">
         <v>620</v>

--- a/Testing_Data/PressureSensorCalibration.xlsx
+++ b/Testing_Data/PressureSensorCalibration.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Bipedal_Robot\Testing_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9F9DEA9-AC91-4E5B-B6C9-1278FD81A53C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE648403-59DF-46C0-88D8-DCBD78735AF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21750" yWindow="4125" windowWidth="21600" windowHeight="11385" xr2:uid="{ED23B71C-6DC7-4F03-A302-FE33CB0246DD}"/>
+    <workbookView xWindow="-25020" yWindow="3510" windowWidth="21600" windowHeight="11385" xr2:uid="{ED23B71C-6DC7-4F03-A302-FE33CB0246DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -222,47 +222,41 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:f>Sheet1!$A$2:$A$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.85899999999999999</c:v>
+                  <c:v>0.873</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.79</c:v>
+                  <c:v>2.09</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.72</c:v>
+                  <c:v>3.44</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.08</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.82</c:v>
+                  <c:v>4.9400000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$6</c:f>
+              <c:f>Sheet1!$B$2:$B$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>160</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>300</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>620</c:v>
                 </c:pt>
               </c:numCache>
@@ -1025,12 +1019,12 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1356,10 +1350,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F07EB23B-8D5C-452B-917B-439C5A6B7860}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1378,7 +1372,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0.85899999999999999</v>
+        <v>0.873</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1386,33 +1380,25 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>1.79</v>
+        <v>2.09</v>
       </c>
       <c r="B3">
-        <v>160</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>2.72</v>
+        <v>3.44</v>
       </c>
       <c r="B4">
-        <v>300</v>
+        <v>400</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>4.08</v>
+        <v>4.9400000000000004</v>
       </c>
       <c r="B5">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>4.82</v>
-      </c>
-      <c r="B6">
         <v>620</v>
       </c>
     </row>

--- a/Testing_Data/PressureSensorCalibration.xlsx
+++ b/Testing_Data/PressureSensorCalibration.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Bipedal_Robot\Testing_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE648403-59DF-46C0-88D8-DCBD78735AF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{717EE7F4-C802-43D4-B71A-F63DD70C6212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-25020" yWindow="3510" windowWidth="21600" windowHeight="11385" xr2:uid="{ED23B71C-6DC7-4F03-A302-FE33CB0246DD}"/>
   </bookViews>

--- a/Testing_Data/PressureSensorCalibration.xlsx
+++ b/Testing_Data/PressureSensorCalibration.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Bipedal_Robot\Testing_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jason Miranda\Documents\GitHub\Bipedal_Robot\Testing_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{717EE7F4-C802-43D4-B71A-F63DD70C6212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1668246-6B66-4E95-ADD6-467A6BD7C611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25020" yWindow="3510" windowWidth="21600" windowHeight="11385" xr2:uid="{ED23B71C-6DC7-4F03-A302-FE33CB0246DD}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{ED23B71C-6DC7-4F03-A302-FE33CB0246DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,6 +25,7 @@
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -227,16 +228,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.873</c:v>
+                  <c:v>0.85</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.09</c:v>
+                  <c:v>2.0099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.44</c:v>
+                  <c:v>3.33</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.9400000000000004</c:v>
+                  <c:v>4.8099999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1353,7 +1354,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1372,7 +1373,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0.873</v>
+        <v>0.85</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1380,7 +1381,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2.09</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="B3">
         <v>200</v>
@@ -1388,7 +1389,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>3.44</v>
+        <v>3.33</v>
       </c>
       <c r="B4">
         <v>400</v>
@@ -1396,7 +1397,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>4.9400000000000004</v>
+        <v>4.8099999999999996</v>
       </c>
       <c r="B5">
         <v>620</v>

--- a/Testing_Data/PressureSensorCalibration.xlsx
+++ b/Testing_Data/PressureSensorCalibration.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jason Miranda\Documents\GitHub\Bipedal_Robot\Testing_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1668246-6B66-4E95-ADD6-467A6BD7C611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CB65284-F004-44F9-9480-572818017A52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{ED23B71C-6DC7-4F03-A302-FE33CB0246DD}"/>
+    <workbookView xWindow="-28800" yWindow="2175" windowWidth="21600" windowHeight="11385" xr2:uid="{ED23B71C-6DC7-4F03-A302-FE33CB0246DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1017,16 +1017,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1354,7 +1354,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Testing_Data/PressureSensorCalibration.xlsx
+++ b/Testing_Data/PressureSensorCalibration.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jason Miranda\Documents\GitHub\Bipedal_Robot\Testing_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Bipedal_Robot\Testing_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CB65284-F004-44F9-9480-572818017A52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{603BA10D-32A0-491C-A060-A0322F6E94F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28800" yWindow="2175" windowWidth="21600" windowHeight="11385" xr2:uid="{ED23B71C-6DC7-4F03-A302-FE33CB0246DD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{ED23B71C-6DC7-4F03-A302-FE33CB0246DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,12 +33,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
   <si>
     <t>Voltage (V)</t>
   </si>
   <si>
     <t>Pressure (kPA)</t>
+  </si>
+  <si>
+    <t>voltage</t>
+  </si>
+  <si>
+    <t>pressure</t>
+  </si>
+  <si>
+    <t>Sample</t>
   </si>
 </sst>
 </file>
@@ -228,7 +237,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.85</c:v>
+                  <c:v>0.87</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2.0099999999999998</c:v>
@@ -237,7 +246,7 @@
                   <c:v>3.33</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.8099999999999996</c:v>
+                  <c:v>4.9400000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -457,7 +466,390 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$M$2:$M$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.9400000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$N$2:$N$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>620</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2BD6-41CE-8E74-4D384B49972E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="265476303"/>
+        <c:axId val="265404607"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="265476303"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="265404607"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="265404607"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="265476303"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1013,6 +1405,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1046,6 +1954,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E41F6CD-C328-4AD2-960D-010AE46A87B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1351,10 +2295,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F07EB23B-8D5C-452B-917B-439C5A6B7860}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1363,31 +2307,49 @@
     <col min="2" max="2" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="M1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0.85</v>
+        <v>0.87</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
+      <c r="M2">
+        <v>0.87</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2.0099999999999998</v>
       </c>
       <c r="B3">
         <v>200</v>
       </c>
+      <c r="M3">
+        <v>4.9400000000000004</v>
+      </c>
+      <c r="N3">
+        <v>620</v>
+      </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3.33</v>
       </c>
@@ -1395,12 +2357,66 @@
         <v>400</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>4.8099999999999996</v>
+        <v>4.9400000000000004</v>
       </c>
       <c r="B5">
         <v>620</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" t="s">
+        <v>3</v>
+      </c>
+      <c r="N24" t="s">
+        <v>2</v>
+      </c>
+      <c r="O24" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>4.9400000000000004</v>
+      </c>
+      <c r="C25">
+        <f>151.6*B25-117.58</f>
+        <v>631.32399999999996</v>
+      </c>
+      <c r="N25">
+        <v>4.9400000000000004</v>
+      </c>
+      <c r="O25">
+        <f>152.33*N25-132.53</f>
+        <v>619.9802000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="C26">
+        <f>151.6*B26-117.58</f>
+        <v>617.67999999999984</v>
+      </c>
+      <c r="N26">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="O26">
+        <f>152.33*N26-132.53</f>
+        <v>606.27050000000008</v>
       </c>
     </row>
   </sheetData>

--- a/Testing_Data/PressureSensorCalibration.xlsx
+++ b/Testing_Data/PressureSensorCalibration.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Bipedal_Robot\Testing_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{603BA10D-32A0-491C-A060-A0322F6E94F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E56F97A-CA8C-4E59-9E3D-F75E91CA1400}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{ED23B71C-6DC7-4F03-A302-FE33CB0246DD}"/>
   </bookViews>
@@ -2412,11 +2412,11 @@
         <v>617.67999999999984</v>
       </c>
       <c r="N26">
-        <v>4.8499999999999996</v>
+        <v>4.8899999999999997</v>
       </c>
       <c r="O26">
         <f>152.33*N26-132.53</f>
-        <v>606.27050000000008</v>
+        <v>612.36369999999999</v>
       </c>
     </row>
   </sheetData>

--- a/Testing_Data/PressureSensorCalibration.xlsx
+++ b/Testing_Data/PressureSensorCalibration.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Bipedal_Robot\Testing_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jason Miranda\Documents\GitHub\Bipedal_Robot\Testing_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E56F97A-CA8C-4E59-9E3D-F75E91CA1400}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF611A2E-33F4-4909-B3F9-9EC5179DDE12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{ED23B71C-6DC7-4F03-A302-FE33CB0246DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -232,41 +232,71 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$5</c:f>
+              <c:f>Sheet1!$A$2:$A$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0.87</c:v>
+                  <c:v>0.84</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0099999999999998</c:v>
+                  <c:v>1.29</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.33</c:v>
+                  <c:v>1.56</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.9400000000000004</c:v>
+                  <c:v>2.0499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.71</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.04</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$5</c:f>
+              <c:f>Sheet1!$B$2:$B$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>200</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>400</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>620</c:v>
                 </c:pt>
               </c:numCache>
@@ -592,10 +622,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.87</c:v>
+                  <c:v>0.84</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.9400000000000004</c:v>
+                  <c:v>4.75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1925,16 +1955,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2295,10 +2325,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F07EB23B-8D5C-452B-917B-439C5A6B7860}">
-  <dimension ref="A1:O26"/>
+  <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N27" sqref="N27"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2323,13 +2353,13 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0.87</v>
+        <v>0.84</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.87</v>
+        <v>0.84</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -2337,13 +2367,13 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2.0099999999999998</v>
+        <v>1.29</v>
       </c>
       <c r="B3">
-        <v>200</v>
+        <v>69</v>
       </c>
       <c r="M3">
-        <v>4.9400000000000004</v>
+        <v>4.75</v>
       </c>
       <c r="N3">
         <v>620</v>
@@ -2351,31 +2381,68 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>3.33</v>
+        <v>1.56</v>
       </c>
       <c r="B4">
-        <v>400</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>4.9400000000000004</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="B5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2.71</v>
+      </c>
+      <c r="B6">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>3.32</v>
+      </c>
+      <c r="B7">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>4.04</v>
+      </c>
+      <c r="B8">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="B9">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>4.75</v>
+      </c>
+      <c r="B10">
         <v>620</v>
       </c>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>4</v>
-      </c>
       <c r="N23" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C24" t="s">
         <v>3</v>
@@ -2388,11 +2455,11 @@
       </c>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B25">
-        <v>4.9400000000000004</v>
+      <c r="B25" t="s">
+        <v>2</v>
       </c>
       <c r="C25">
-        <f>151.6*B25-117.58</f>
+        <f>151.6*B26-117.58</f>
         <v>631.32399999999996</v>
       </c>
       <c r="N25">
@@ -2405,10 +2472,10 @@
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B26">
-        <v>4.8499999999999996</v>
+        <v>4.9400000000000004</v>
       </c>
       <c r="C26">
-        <f>151.6*B26-117.58</f>
+        <f>151.6*B27-117.58</f>
         <v>617.67999999999984</v>
       </c>
       <c r="N26">
@@ -2417,6 +2484,11 @@
       <c r="O26">
         <f>152.33*N26-132.53</f>
         <v>612.36369999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>4.8499999999999996</v>
       </c>
     </row>
   </sheetData>

--- a/Testing_Data/PressureSensorCalibration.xlsx
+++ b/Testing_Data/PressureSensorCalibration.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jason Miranda\Documents\GitHub\Bipedal_Robot\Testing_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Bipedal_Robot\Testing_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF611A2E-33F4-4909-B3F9-9EC5179DDE12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B73AA9C0-E8F7-4A08-8093-309074EF8F98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{ED23B71C-6DC7-4F03-A302-FE33CB0246DD}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{ED23B71C-6DC7-4F03-A302-FE33CB0246DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -232,71 +232,65 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$15</c:f>
+              <c:f>Sheet1!$A$2:$A$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>0.84</c:v>
+                  <c:v>0.83579999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.29</c:v>
+                  <c:v>1.4467000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.56</c:v>
+                  <c:v>2.0771999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.0499999999999998</c:v>
+                  <c:v>2.7517</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.71</c:v>
+                  <c:v>3.3969</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.32</c:v>
+                  <c:v>4.0274000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.04</c:v>
+                  <c:v>4.6627999999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.5999999999999996</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.75</c:v>
+                  <c:v>4.8094000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$15</c:f>
+              <c:f>Sheet1!$B$2:$B$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>69</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>120</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>200</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>300</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>400</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>500</c:v>
+                  <c:v>600</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>620</c:v>
                 </c:pt>
               </c:numCache>
@@ -622,10 +616,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.84</c:v>
+                  <c:v>0.83579999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.75</c:v>
+                  <c:v>4.8094000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2325,10 +2319,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F07EB23B-8D5C-452B-917B-439C5A6B7860}">
-  <dimension ref="A1:O27"/>
+  <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2353,13 +2347,13 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0.84</v>
+        <v>0.83579999999999999</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.84</v>
+        <v>0.83579999999999999</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -2367,13 +2361,13 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>1.29</v>
+        <v>1.4467000000000001</v>
       </c>
       <c r="B3">
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="M3">
-        <v>4.75</v>
+        <v>4.8094000000000001</v>
       </c>
       <c r="N3">
         <v>620</v>
@@ -2381,68 +2375,63 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>1.56</v>
+        <v>2.0771999999999999</v>
       </c>
       <c r="B4">
-        <v>120</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>2.0499999999999998</v>
+        <v>2.7517</v>
       </c>
       <c r="B5">
-        <v>200</v>
+        <v>300</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>2.71</v>
+        <v>3.3969</v>
       </c>
       <c r="B6">
-        <v>300</v>
+        <v>400</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>3.32</v>
+        <v>4.0274000000000001</v>
       </c>
       <c r="B7">
-        <v>400</v>
+        <v>500</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>4.04</v>
+        <v>4.6627999999999998</v>
       </c>
       <c r="B8">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>4.5999999999999996</v>
+        <v>4.8094000000000001</v>
       </c>
       <c r="B9">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>4.75</v>
-      </c>
-      <c r="B10">
         <v>620</v>
       </c>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>4</v>
+      </c>
       <c r="N23" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C24" t="s">
         <v>3</v>
@@ -2455,40 +2444,35 @@
       </c>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>2</v>
+      <c r="B25">
+        <v>0.83579999999999999</v>
       </c>
       <c r="C25">
-        <f>151.6*B26-117.58</f>
-        <v>631.32399999999996</v>
+        <f>151.6*B25-117.58</f>
+        <v>9.1272799999999989</v>
       </c>
       <c r="N25">
-        <v>4.9400000000000004</v>
+        <v>0.83579999999999999</v>
       </c>
       <c r="O25">
         <f>152.33*N25-132.53</f>
-        <v>619.9802000000002</v>
+        <v>-5.2125859999999875</v>
       </c>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B26">
-        <v>4.9400000000000004</v>
+        <v>4.7653999999999996</v>
       </c>
       <c r="C26">
-        <f>151.6*B27-117.58</f>
-        <v>617.67999999999984</v>
+        <f>151.6*B26-117.58</f>
+        <v>604.8546399999999</v>
       </c>
       <c r="N26">
-        <v>4.8899999999999997</v>
+        <v>4.7653999999999996</v>
       </c>
       <c r="O26">
         <f>152.33*N26-132.53</f>
-        <v>612.36369999999999</v>
-      </c>
-    </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B27">
-        <v>4.8499999999999996</v>
+        <v>593.38338199999998</v>
       </c>
     </row>
   </sheetData>

--- a/Testing_Data/PressureSensorCalibration.xlsx
+++ b/Testing_Data/PressureSensorCalibration.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Bipedal_Robot\Testing_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B73AA9C0-E8F7-4A08-8093-309074EF8F98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C834A916-5249-4783-9E81-EE8B47AA3E04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{ED23B71C-6DC7-4F03-A302-FE33CB0246DD}"/>
   </bookViews>
@@ -237,28 +237,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>0.83579999999999999</c:v>
+                  <c:v>0.82599999999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.4467000000000001</c:v>
+                  <c:v>1.4052</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.0771999999999999</c:v>
+                  <c:v>2.1017000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.7517</c:v>
+                  <c:v>2.7566000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.3969</c:v>
+                  <c:v>3.4310999999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.0274000000000001</c:v>
+                  <c:v>4.0225</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.6627999999999998</c:v>
+                  <c:v>4.6449999999999996</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.8094000000000001</c:v>
+                  <c:v>4.8192000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -616,10 +616,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.83579999999999999</c:v>
+                  <c:v>0.82599999999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.8094000000000001</c:v>
+                  <c:v>4.8192000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2322,7 +2322,7 @@
   <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2347,13 +2347,13 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0.83579999999999999</v>
+        <v>0.82599999999999996</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.83579999999999999</v>
+        <v>0.82599999999999996</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -2361,13 +2361,13 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>1.4467000000000001</v>
+        <v>1.4052</v>
       </c>
       <c r="B3">
         <v>100</v>
       </c>
       <c r="M3">
-        <v>4.8094000000000001</v>
+        <v>4.8192000000000004</v>
       </c>
       <c r="N3">
         <v>620</v>
@@ -2375,7 +2375,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>2.0771999999999999</v>
+        <v>2.1017000000000001</v>
       </c>
       <c r="B4">
         <v>200</v>
@@ -2383,7 +2383,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>2.7517</v>
+        <v>2.7566000000000002</v>
       </c>
       <c r="B5">
         <v>300</v>
@@ -2391,7 +2391,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>3.3969</v>
+        <v>3.4310999999999998</v>
       </c>
       <c r="B6">
         <v>400</v>
@@ -2399,7 +2399,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>4.0274000000000001</v>
+        <v>4.0225</v>
       </c>
       <c r="B7">
         <v>500</v>
@@ -2407,7 +2407,7 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>4.6627999999999998</v>
+        <v>4.6449999999999996</v>
       </c>
       <c r="B8">
         <v>600</v>
@@ -2415,7 +2415,7 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>4.8094000000000001</v>
+        <v>4.8192000000000004</v>
       </c>
       <c r="B9">
         <v>620</v>

--- a/Testing_Data/PressureSensorCalibration.xlsx
+++ b/Testing_Data/PressureSensorCalibration.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Bipedal_Robot\Testing_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C834A916-5249-4783-9E81-EE8B47AA3E04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0294E47-96A7-4862-B733-03EAC2DAACCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{ED23B71C-6DC7-4F03-A302-FE33CB0246DD}"/>
   </bookViews>
@@ -19,14 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -232,65 +224,59 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$14</c:f>
+              <c:f>Sheet1!$A$2:$A$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0.82599999999999996</c:v>
+                  <c:v>0.83089999999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.4052</c:v>
+                  <c:v>2.0821000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.1017000000000001</c:v>
+                  <c:v>2.7664</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.7566000000000002</c:v>
+                  <c:v>3.4310999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.4310999999999998</c:v>
+                  <c:v>4.0468999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.0225</c:v>
+                  <c:v>4.6773999999999996</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.6449999999999996</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4.8192000000000004</c:v>
+                  <c:v>4.8728999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$14</c:f>
+              <c:f>Sheet1!$B$2:$B$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>200</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>300</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>400</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>500</c:v>
+                  <c:v>600</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>620</c:v>
                 </c:pt>
               </c:numCache>
@@ -616,10 +602,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.82599999999999996</c:v>
+                  <c:v>0.83089999999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.8192000000000004</c:v>
+                  <c:v>4.8728999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2322,7 +2308,7 @@
   <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2347,13 +2333,13 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0.82599999999999996</v>
+        <v>0.83089999999999997</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.82599999999999996</v>
+        <v>0.83089999999999997</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -2361,13 +2347,13 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>1.4052</v>
+        <v>2.0821000000000001</v>
       </c>
       <c r="B3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M3">
-        <v>4.8192000000000004</v>
+        <v>4.8728999999999996</v>
       </c>
       <c r="N3">
         <v>620</v>
@@ -2375,66 +2361,67 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>2.1017000000000001</v>
+        <v>2.7664</v>
       </c>
       <c r="B4">
-        <v>200</v>
+        <v>300</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>2.7566000000000002</v>
+        <v>3.4310999999999998</v>
       </c>
       <c r="B5">
-        <v>300</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>3.4310999999999998</v>
+        <v>4.0468999999999999</v>
       </c>
       <c r="B6">
-        <v>400</v>
+        <v>500</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>4.0225</v>
+        <v>4.6773999999999996</v>
       </c>
       <c r="B7">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>4.6449999999999996</v>
+        <v>4.8728999999999996</v>
       </c>
       <c r="B8">
-        <v>600</v>
+        <v>620</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>4.8192000000000004</v>
-      </c>
-      <c r="B9">
-        <v>620</v>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="C23" t="s">
+        <v>3</v>
       </c>
       <c r="N23" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>2</v>
-      </c>
-      <c r="C24" t="s">
-        <v>3</v>
+      <c r="B24">
+        <v>0.83099999999999996</v>
+      </c>
+      <c r="C24">
+        <f>154.1*B24-125.6</f>
+        <v>2.457099999999997</v>
       </c>
       <c r="N24" t="s">
         <v>2</v>
@@ -2445,34 +2432,27 @@
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B25">
-        <v>0.83579999999999999</v>
+        <v>4.8239999999999998</v>
       </c>
       <c r="C25">
-        <f>151.6*B25-117.58</f>
-        <v>9.1272799999999989</v>
+        <f>154.1*B25-125.6</f>
+        <v>617.77839999999992</v>
       </c>
       <c r="N25">
         <v>0.83579999999999999</v>
       </c>
       <c r="O25">
-        <f>152.33*N25-132.53</f>
-        <v>-5.2125859999999875</v>
+        <f>153.39*N25-127.45</f>
+        <v>0.75336199999999565</v>
       </c>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B26">
-        <v>4.7653999999999996</v>
-      </c>
-      <c r="C26">
-        <f>151.6*B26-117.58</f>
-        <v>604.8546399999999</v>
-      </c>
       <c r="N26">
         <v>4.7653999999999996</v>
       </c>
       <c r="O26">
-        <f>152.33*N26-132.53</f>
-        <v>593.38338199999998</v>
+        <f>153.39*N26-127.45</f>
+        <v>603.51470599999982</v>
       </c>
     </row>
   </sheetData>

--- a/Testing_Data/PressureSensorCalibration.xlsx
+++ b/Testing_Data/PressureSensorCalibration.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Bipedal_Robot\Testing_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0294E47-96A7-4862-B733-03EAC2DAACCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC7C9E21-106A-4E3B-9CA6-0C91E5A29C16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{ED23B71C-6DC7-4F03-A302-FE33CB0246DD}"/>
   </bookViews>
@@ -229,25 +229,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0.83089999999999997</c:v>
+                  <c:v>0.8407</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0821000000000001</c:v>
+                  <c:v>2.1065</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.7664</c:v>
+                  <c:v>2.7713000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.4310999999999998</c:v>
+                  <c:v>3.4262000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.0468999999999999</c:v>
+                  <c:v>4.0518000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.6773999999999996</c:v>
+                  <c:v>4.6871999999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.8728999999999996</c:v>
+                  <c:v>4.9021999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -602,10 +602,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.83089999999999997</c:v>
+                  <c:v>0.8407</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.8728999999999996</c:v>
+                  <c:v>4.9021999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2305,10 +2305,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F07EB23B-8D5C-452B-917B-439C5A6B7860}">
-  <dimension ref="A1:O26"/>
+  <dimension ref="A1:O30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2333,13 +2333,13 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0.83089999999999997</v>
+        <v>0.8407</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.83089999999999997</v>
+        <v>0.8407</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -2347,13 +2347,13 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2.0821000000000001</v>
+        <v>2.1065</v>
       </c>
       <c r="B3">
         <v>200</v>
       </c>
       <c r="M3">
-        <v>4.8728999999999996</v>
+        <v>4.9021999999999997</v>
       </c>
       <c r="N3">
         <v>620</v>
@@ -2361,7 +2361,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>2.7664</v>
+        <v>2.7713000000000001</v>
       </c>
       <c r="B4">
         <v>300</v>
@@ -2369,7 +2369,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>3.4310999999999998</v>
+        <v>3.4262000000000001</v>
       </c>
       <c r="B5">
         <v>400</v>
@@ -2377,7 +2377,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>4.0468999999999999</v>
+        <v>4.0518000000000001</v>
       </c>
       <c r="B6">
         <v>500</v>
@@ -2385,7 +2385,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>4.6773999999999996</v>
+        <v>4.6871999999999998</v>
       </c>
       <c r="B7">
         <v>600</v>
@@ -2393,7 +2393,7 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>4.8728999999999996</v>
+        <v>4.9021999999999997</v>
       </c>
       <c r="B8">
         <v>620</v>
@@ -2453,6 +2453,12 @@
       <c r="O26">
         <f>153.39*N26-127.45</f>
         <v>603.51470599999982</v>
+      </c>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="F30">
+        <f>(2.1065-2.0821)/2.1065</f>
+        <v>1.1583194873012095E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Testing_Data/PressureSensorCalibration.xlsx
+++ b/Testing_Data/PressureSensorCalibration.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Bipedal_Robot\Testing_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC7C9E21-106A-4E3B-9CA6-0C91E5A29C16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D7200BF-30DC-46F1-AD44-5040427BA7D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{ED23B71C-6DC7-4F03-A302-FE33CB0246DD}"/>
+    <workbookView xWindow="-26010" yWindow="0" windowWidth="17130" windowHeight="15435" xr2:uid="{ED23B71C-6DC7-4F03-A302-FE33CB0246DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -229,25 +229,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0.8407</c:v>
+                  <c:v>0.83579999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.1065</c:v>
+                  <c:v>2.0674000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.7713000000000001</c:v>
+                  <c:v>2.7370000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.4262000000000001</c:v>
+                  <c:v>3.4163999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.0518000000000001</c:v>
+                  <c:v>4.0468999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.6871999999999998</c:v>
+                  <c:v>4.6481000000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.9021999999999997</c:v>
+                  <c:v>4.7897999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -602,10 +602,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.8407</c:v>
+                  <c:v>0.83579999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.9021999999999997</c:v>
+                  <c:v>4.7897999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2305,10 +2305,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F07EB23B-8D5C-452B-917B-439C5A6B7860}">
-  <dimension ref="A1:O30"/>
+  <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2333,13 +2333,13 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0.8407</v>
+        <v>0.83579999999999999</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.8407</v>
+        <v>0.83579999999999999</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -2347,13 +2347,13 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2.1065</v>
+        <v>2.0674000000000001</v>
       </c>
       <c r="B3">
         <v>200</v>
       </c>
       <c r="M3">
-        <v>4.9021999999999997</v>
+        <v>4.7897999999999996</v>
       </c>
       <c r="N3">
         <v>620</v>
@@ -2361,7 +2361,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>2.7713000000000001</v>
+        <v>2.7370000000000001</v>
       </c>
       <c r="B4">
         <v>300</v>
@@ -2369,7 +2369,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>3.4262000000000001</v>
+        <v>3.4163999999999999</v>
       </c>
       <c r="B5">
         <v>400</v>
@@ -2377,7 +2377,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>4.0518000000000001</v>
+        <v>4.0468999999999999</v>
       </c>
       <c r="B6">
         <v>500</v>
@@ -2385,7 +2385,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>4.6871999999999998</v>
+        <v>4.6481000000000003</v>
       </c>
       <c r="B7">
         <v>600</v>
@@ -2393,7 +2393,7 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>4.9021999999999997</v>
+        <v>4.7897999999999996</v>
       </c>
       <c r="B8">
         <v>620</v>
@@ -2417,11 +2417,11 @@
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B24">
-        <v>0.83099999999999996</v>
+        <v>0.83579999999999999</v>
       </c>
       <c r="C24">
-        <f>154.1*B24-125.6</f>
-        <v>2.457099999999997</v>
+        <f>156.04*B24-128.2</f>
+        <v>2.2182320000000004</v>
       </c>
       <c r="N24" t="s">
         <v>2</v>
@@ -2432,33 +2432,27 @@
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B25">
-        <v>4.8239999999999998</v>
+        <v>4.7702999999999998</v>
       </c>
       <c r="C25">
-        <f>154.1*B25-125.6</f>
-        <v>617.77839999999992</v>
+        <f>156.04*B25-128.2</f>
+        <v>616.15761199999997</v>
       </c>
       <c r="N25">
         <v>0.83579999999999999</v>
       </c>
       <c r="O25">
-        <f>153.39*N25-127.45</f>
-        <v>0.75336199999999565</v>
+        <f>156.8*N25-131.06</f>
+        <v>-6.5600000000074488E-3</v>
       </c>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.25">
       <c r="N26">
-        <v>4.7653999999999996</v>
+        <v>4.7214</v>
       </c>
       <c r="O26">
-        <f>153.39*N26-127.45</f>
-        <v>603.51470599999982</v>
-      </c>
-    </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="F30">
-        <f>(2.1065-2.0821)/2.1065</f>
-        <v>1.1583194873012095E-2</v>
+        <f>156.8*N26-131.06</f>
+        <v>609.25552000000016</v>
       </c>
     </row>
   </sheetData>
